--- a/StructureDefinition-patient-age.xlsx
+++ b/StructureDefinition-patient-age.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T11:52:57+00:00</t>
+    <t>2025-09-04T12:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
